--- a/teams.xlsx
+++ b/teams.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yorkson/Dropbox/MSWE-Q2/SWE 265P/my_W2020/W2020/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C8C21-52BF-8345-B327-69F447E53077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,311 +25,325 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
-  <si>
-    <t xml:space="preserve">TEAMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work, work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Costco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runtime Terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;team name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dongxin Xiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marc Andrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aman Bhatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #1 name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jing Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soobin Choi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anjana Krishnakumar Vellore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #2 name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guowei Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duo Chai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaishakhi Pilankar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #3 name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dongxix@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andradam@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amanb1@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #1 e-mail&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anniejingchen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soobinc3@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anjanak1@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #2 e-mail&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guowel2@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dchai2@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vpilanka@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #3 e-mail&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunflower0309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nbalumpia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aman-bhatia94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #1 github id&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anniejingchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soobinchoi54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anjanakvellore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #2 github id&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oscarli9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danny7226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaishakhiification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;member #3 github id&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#-er than you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git Good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santhiya Nagarajan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shikun Xiong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyun Jay Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yitian Ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas Grantham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santhiyn@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shikunx@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rcortezb@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yitiam2@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjyang1@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SanthiyaNagarajan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngrantha@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShikunXiong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">czhang29@uci.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eetian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rafbel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjayyang94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GranthamAnthem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch-zha</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+  <si>
+    <t>TEAMS</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team 5</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 7</t>
+  </si>
+  <si>
+    <t>Work, work</t>
+  </si>
+  <si>
+    <t>Team Costco</t>
+  </si>
+  <si>
+    <t>Runtime Terror</t>
+  </si>
+  <si>
+    <t>&lt;team name&gt;</t>
+  </si>
+  <si>
+    <t>Dongxin Xiang</t>
+  </si>
+  <si>
+    <t>Marc Andrada</t>
+  </si>
+  <si>
+    <t>Aman Bhatia</t>
+  </si>
+  <si>
+    <t>&lt;member #1 name&gt;</t>
+  </si>
+  <si>
+    <t>Jing Chen</t>
+  </si>
+  <si>
+    <t>Soobin Choi</t>
+  </si>
+  <si>
+    <t>Anjana Krishnakumar Vellore</t>
+  </si>
+  <si>
+    <t>&lt;member #2 name&gt;</t>
+  </si>
+  <si>
+    <t>Guowei Li</t>
+  </si>
+  <si>
+    <t>Duo Chai</t>
+  </si>
+  <si>
+    <t>Vaishakhi Pilankar</t>
+  </si>
+  <si>
+    <t>&lt;member #3 name&gt;</t>
+  </si>
+  <si>
+    <t>dongxix@uci.edu</t>
+  </si>
+  <si>
+    <t>andradam@uci.edu</t>
+  </si>
+  <si>
+    <t>amanb1@uci.edu</t>
+  </si>
+  <si>
+    <t>&lt;member #1 e-mail&gt;</t>
+  </si>
+  <si>
+    <t>anniejingchen@gmail.com</t>
+  </si>
+  <si>
+    <t>soobinc3@uci.edu</t>
+  </si>
+  <si>
+    <t>anjanak1@uci.edu</t>
+  </si>
+  <si>
+    <t>&lt;member #2 e-mail&gt;</t>
+  </si>
+  <si>
+    <t>guowel2@uci.edu</t>
+  </si>
+  <si>
+    <t>dchai2@uci.edu</t>
+  </si>
+  <si>
+    <t>vpilanka@uci.edu</t>
+  </si>
+  <si>
+    <t>&lt;member #3 e-mail&gt;</t>
+  </si>
+  <si>
+    <t>sunflower0309</t>
+  </si>
+  <si>
+    <t>nbalumpia</t>
+  </si>
+  <si>
+    <t>aman-bhatia94</t>
+  </si>
+  <si>
+    <t>&lt;member #1 github id&gt;</t>
+  </si>
+  <si>
+    <t>anniejingchen</t>
+  </si>
+  <si>
+    <t>soobinchoi54</t>
+  </si>
+  <si>
+    <t>anjanakvellore</t>
+  </si>
+  <si>
+    <t>&lt;member #2 github id&gt;</t>
+  </si>
+  <si>
+    <t>oscarli9</t>
+  </si>
+  <si>
+    <t>Danny7226</t>
+  </si>
+  <si>
+    <t>vaishakhiification</t>
+  </si>
+  <si>
+    <t>&lt;member #3 github id&gt;</t>
+  </si>
+  <si>
+    <t>Team 8</t>
+  </si>
+  <si>
+    <t>Team 9</t>
+  </si>
+  <si>
+    <t>Team 10</t>
+  </si>
+  <si>
+    <t>Team 11</t>
+  </si>
+  <si>
+    <t>C#-er than you</t>
+  </si>
+  <si>
+    <t>Git Good</t>
+  </si>
+  <si>
+    <t>Santhiya Nagarajan</t>
+  </si>
+  <si>
+    <t>Rafael Oliveira</t>
+  </si>
+  <si>
+    <t>Shikun Xiong</t>
+  </si>
+  <si>
+    <t>Hyun Jay Yang</t>
+  </si>
+  <si>
+    <t>Yitian Ma</t>
+  </si>
+  <si>
+    <t>Nicolas Grantham</t>
+  </si>
+  <si>
+    <t>santhiyn@uci.edu</t>
+  </si>
+  <si>
+    <t>Chris Zhang</t>
+  </si>
+  <si>
+    <t>shikunx@uci.edu</t>
+  </si>
+  <si>
+    <t>rcortezb@uci.edu</t>
+  </si>
+  <si>
+    <t>yitiam2@uci.edu</t>
+  </si>
+  <si>
+    <t>hjyang1@uci.edu</t>
+  </si>
+  <si>
+    <t>SanthiyaNagarajan</t>
+  </si>
+  <si>
+    <t>ngrantha@uci.edu</t>
+  </si>
+  <si>
+    <t>ShikunXiong</t>
+  </si>
+  <si>
+    <t>czhang29@uci.edu</t>
+  </si>
+  <si>
+    <t>eetian</t>
+  </si>
+  <si>
+    <t>rafbel</t>
+  </si>
+  <si>
+    <t>hjayyang94</t>
+  </si>
+  <si>
+    <t>GranthamAnthem</t>
+  </si>
+  <si>
+    <t>ch-zha</t>
+  </si>
+  <si>
+    <t>Skateboard2Wheelchair</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yue Zhang</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeyu Huang</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tianlun Li</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeyuh10@uci.edu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>yue.zhang@uci.edu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianlul3@uci.edu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>YorksonChang</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShawnLi1014</t>
+  </si>
+  <si>
+    <t>Zeyuuuuuu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
@@ -332,7 +351,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
@@ -340,12 +359,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -369,7 +402,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -377,93 +410,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="22"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -522,28 +499,336 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="34.66"/>
+    <col min="1" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +839,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -563,7 +848,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -586,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -605,11 +890,11 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -618,7 +903,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -637,11 +922,11 @@
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -660,11 +945,11 @@
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -683,11 +968,11 @@
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -707,10 +992,10 @@
         <v>27</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -730,10 +1015,10 @@
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -753,10 +1038,10 @@
         <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -775,11 +1060,11 @@
       <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -798,11 +1083,11 @@
       <c r="F13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -822,10 +1107,10 @@
         <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -834,7 +1119,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -843,7 +1128,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -860,7 +1145,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -877,7 +1162,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -886,7 +1171,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -903,7 +1188,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -920,7 +1205,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -937,7 +1222,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -954,7 +1239,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -971,7 +1256,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
@@ -988,7 +1273,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
@@ -1005,7 +1290,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
@@ -1022,7 +1307,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -1039,7 +1324,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1050,7 +1335,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1061,7 +1346,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1072,7 +1357,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1085,30 +1370,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="dongxix@uci.edu"/>
-    <hyperlink ref="B9" r:id="rId2" display="andradam@uci.edu"/>
-    <hyperlink ref="C9" r:id="rId3" display="amanb1@uci.edu"/>
-    <hyperlink ref="A10" r:id="rId4" display="anniejingchen@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId5" display="soobinc3@uci.edu"/>
-    <hyperlink ref="C10" r:id="rId6" display="anjanak1@uci.edu"/>
-    <hyperlink ref="A11" r:id="rId7" display="guowel2@uci.edu"/>
-    <hyperlink ref="B11" r:id="rId8" display="dchai2@uci.edu"/>
-    <hyperlink ref="C11" r:id="rId9" display="vpilanka@uci.edu"/>
-    <hyperlink ref="A23" r:id="rId10" display="santhiyn@uci.edu"/>
-    <hyperlink ref="A24" r:id="rId11" display="shikunx@uci.edu"/>
-    <hyperlink ref="D24" r:id="rId12" display="rcortezb@uci.edu"/>
-    <hyperlink ref="A25" r:id="rId13" display="yitiam2@uci.edu"/>
-    <hyperlink ref="D25" r:id="rId14" display="hjyang1@uci.edu"/>
-    <hyperlink ref="D26" r:id="rId15" display="ngrantha@uci.edu"/>
-    <hyperlink ref="D27" r:id="rId16" display="czhang29@uci.edu"/>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{F93FAF08-6C1E-CF4E-AE23-6DF8E2EA8B7A}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{164C78FD-80FA-4B42-ABDD-24F5AD92BA12}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{462FC0CF-D320-194A-8439-4BA2C87999CE}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>